--- a/Country_ISO.xlsx
+++ b/Country_ISO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Projects\Project_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Projects\COVID-19_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$184</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="367">
   <si>
     <t>AFG</t>
   </si>
@@ -183,9 +183,6 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>ESH</t>
-  </si>
-  <si>
     <t>ESP</t>
   </si>
   <si>
@@ -742,9 +739,6 @@
   </si>
   <si>
     <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
   </si>
   <si>
     <t>Spain</t>
@@ -1492,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1505,10 +1499,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1516,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1524,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1532,7 +1526,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1540,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1548,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1556,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1564,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1572,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1580,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1588,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1596,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1604,7 +1598,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1612,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1628,7 +1622,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1636,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1644,7 +1638,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1652,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1668,7 +1662,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1676,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1684,7 +1678,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1692,7 +1686,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1700,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1708,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1716,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1724,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1732,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1740,15 +1734,15 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1756,7 +1750,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1764,7 +1758,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1772,15 +1766,15 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1788,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1796,7 +1790,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1804,7 +1798,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1812,7 +1806,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1820,7 +1814,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1828,7 +1822,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1836,15 +1830,15 @@
         <v>33</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1852,7 +1846,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1860,7 +1854,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1868,7 +1862,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1876,7 +1870,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1884,7 +1878,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1892,7 +1886,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1900,7 +1894,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1908,7 +1902,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1916,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1924,23 +1918,23 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1948,71 +1942,71 @@
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2020,775 +2014,775 @@
         <v>44</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,87 +2790,87 @@
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,84 +2878,84 @@
         <v>4</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>240</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>366</v>
@@ -2972,15 +2966,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
